--- a/work_shop/51jobs.xlsx
+++ b/work_shop/51jobs.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -374,25 +374,20 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>职位链接</t>
+          <t>公司名</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>公司名</t>
+          <t>工作地点</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>工作地点</t>
+          <t>薪资</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>薪资</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>发布时间</t>
         </is>
@@ -406,21 +401,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://51rz.51job.com/job.html?jobid=86521374</t>
+          <t>“前程无忧”51job.com（上海）</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>“前程无忧”51job.com（上海）</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>上海-浦东新区</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+          <t>上海-浦东新区</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>05-03</t>
         </is>
@@ -434,25 +424,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/shanghai-pdxq/119973452.html?s=01&amp;t=0</t>
+          <t>360金融</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>360金融</t>
+          <t>上海-浦东新区</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>上海-浦东新区</t>
+          <t>1.2-2万/月</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
-        <is>
-          <t>1.2-2万/月</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
         <is>
           <t>05-03</t>
         </is>
@@ -466,25 +451,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/shanghai-pdxq/121792291.html?s=01&amp;t=0</t>
+          <t>远东国际融资租赁有限公司</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>远东国际融资租赁有限公司</t>
+          <t>上海-浦东新区</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>上海-浦东新区</t>
+          <t>25-45万/年</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
-        <is>
-          <t>25-45万/年</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
         <is>
           <t>05-03</t>
         </is>
@@ -498,25 +478,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/shanghai-pdxq/120026947.html?s=01&amp;t=0</t>
+          <t>上海泰链信息科技股份有限公司</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>上海泰链信息科技股份有限公司</t>
+          <t>上海-浦东新区</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>上海-浦东新区</t>
+          <t>2-2.5万/月</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
-        <is>
-          <t>2-2.5万/月</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
         <is>
           <t>05-03</t>
         </is>
@@ -530,25 +505,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/shanghai-jaq/108297210.html?s=01&amp;t=0</t>
+          <t>菲缔信息科技（上海）有限公司</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>菲缔信息科技（上海）有限公司</t>
+          <t>上海-静安区</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>上海-静安区</t>
+          <t>1-1.5万/月</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
-        <is>
-          <t>1-1.5万/月</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
         <is>
           <t>05-03</t>
         </is>
@@ -562,25 +532,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/shanghai-ypq/119968897.html?s=01&amp;t=0</t>
+          <t>诺亚正行基金销售有限公司</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>诺亚正行基金销售有限公司</t>
+          <t>上海-杨浦区</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>上海-杨浦区</t>
+          <t>6-8千/月</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
-        <is>
-          <t>6-8千/月</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
         <is>
           <t>05-03</t>
         </is>
@@ -594,25 +559,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/shanghai-pdxq/121375284.html?s=01&amp;t=0</t>
+          <t>陆家嘴国泰人寿保险有限责任公司</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>陆家嘴国泰人寿保险有限责任公司</t>
+          <t>上海-浦东新区</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>上海-浦东新区</t>
+          <t>15-20万/年</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
-        <is>
-          <t>15-20万/年</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
         <is>
           <t>05-02</t>
         </is>
@@ -626,25 +586,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/shanghai/121731434.html?s=01&amp;t=0</t>
+          <t>上海农商银行/上海农村商业银行股...</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>上海农商银行/上海农村商业银行股...</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>2-2.5万/月</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
-        <is>
-          <t>2-2.5万/月</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
         <is>
           <t>05-02</t>
         </is>
@@ -658,25 +613,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/shanghai-hpq/120669428.html?s=01&amp;t=0</t>
+          <t>益博睿信息技术（北京）有限公司</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>益博睿信息技术（北京）有限公司</t>
+          <t>上海-黄浦区</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>上海-黄浦区</t>
+          <t>2.5-3.5万/月</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
-        <is>
-          <t>2.5-3.5万/月</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
         <is>
           <t>05-02</t>
         </is>
@@ -690,25 +640,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://cpicallianz.51job.com/sc/show_job_detail.php?jobid=121698385</t>
+          <t>太保安联健康保险股份有限公司</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>太保安联健康保险股份有限公司</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>0.8-2.5万/月</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
-        <is>
-          <t>0.8-2.5万/月</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
         <is>
           <t>05-01</t>
         </is>
@@ -722,25 +667,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/shanghai-pdxq/121697895.html?s=01&amp;t=0</t>
+          <t>旗天科技集团股份有限公司</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>旗天科技集团股份有限公司</t>
+          <t>上海-浦东新区</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>上海-浦东新区</t>
+          <t>1.2-2万/月</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
-        <is>
-          <t>1.2-2万/月</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
         <is>
           <t>05-01</t>
         </is>
@@ -754,25 +694,20 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/shanghai/121419764.html?s=01&amp;t=0</t>
+          <t>东航金控有限责任公司</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>东航金控有限责任公司</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>10-15万/年</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
-        <is>
-          <t>10-15万/年</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
         <is>
           <t>05-01</t>
         </is>
@@ -786,25 +721,20 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/shanghai-hpq/120565998.html?s=01&amp;t=0</t>
+          <t>重庆市崇天小额贷款有限公司</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>重庆市崇天小额贷款有限公司</t>
+          <t>上海-黄浦区</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>上海-黄浦区</t>
+          <t>1.2-2.3万/月</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
-        <is>
-          <t>1.2-2.3万/月</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
         <is>
           <t>04-30</t>
         </is>
@@ -818,25 +748,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/shanghai-hpq/120077489.html?s=01&amp;t=0</t>
+          <t>上海融和电科融资租赁有限公司</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>上海融和电科融资租赁有限公司</t>
+          <t>上海-黄浦区</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>上海-黄浦区</t>
+          <t>0.8-1.2万/月</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
-        <is>
-          <t>0.8-1.2万/月</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
         <is>
           <t>04-30</t>
         </is>
@@ -850,25 +775,20 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/shanghai-pdxq/118801885.html?s=01&amp;t=0</t>
+          <t>上海益车信息服务有限公司</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>上海益车信息服务有限公司</t>
+          <t>上海-浦东新区</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>上海-浦东新区</t>
+          <t>0.8-1.2万/月</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
-        <is>
-          <t>0.8-1.2万/月</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
         <is>
           <t>04-30</t>
         </is>
@@ -882,25 +802,20 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/shanghai-pdxq/65775570.html?s=01&amp;t=0</t>
+          <t>上海中汇亿达金融信息技术有限公司...</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>上海中汇亿达金融信息技术有限公司...</t>
+          <t>上海-浦东新区</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>上海-浦东新区</t>
+          <t>8-10万/年</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
-        <is>
-          <t>8-10万/年</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
         <is>
           <t>04-30</t>
         </is>
@@ -914,25 +829,20 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/shanghai/120199515.html?s=01&amp;t=0</t>
+          <t>吉致汽车金融有限公司</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>吉致汽车金融有限公司</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>15-25万/年</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
-        <is>
-          <t>15-25万/年</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
         <is>
           <t>04-30</t>
         </is>
@@ -946,25 +856,20 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/shanghai-pdxq/109143833.html?s=01&amp;t=0</t>
+          <t>上海通联金融服务有限公司</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>上海通联金融服务有限公司</t>
+          <t>上海-浦东新区</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>上海-浦东新区</t>
+          <t>1.5-3万/月</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
-        <is>
-          <t>1.5-3万/月</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
         <is>
           <t>04-30</t>
         </is>
@@ -978,25 +883,20 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/shanghai-pdxq/121671932.html?s=01&amp;t=0</t>
+          <t>启赟金融信息服务（上海）有限公司...</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>启赟金融信息服务（上海）有限公司...</t>
+          <t>上海-浦东新区</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>上海-浦东新区</t>
+          <t>150元/天</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
-        <is>
-          <t>150元/天</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
         <is>
           <t>04-30</t>
         </is>
@@ -1010,25 +910,20 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/shanghai-qpq/121118925.html?s=01&amp;t=0</t>
+          <t>上海苗焕实业有限公司</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>上海苗焕实业有限公司</t>
+          <t>上海-青浦区</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>上海-青浦区</t>
+          <t>1.1-1.8万/月</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
-        <is>
-          <t>1.1-1.8万/月</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
         <is>
           <t>04-30</t>
         </is>
@@ -1042,25 +937,20 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/shanghai-pdxq/86280008.html?s=01&amp;t=0</t>
+          <t>上海橘涞金融信息服务有限公司</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>上海橘涞金融信息服务有限公司</t>
+          <t>上海-浦东新区</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>上海-浦东新区</t>
+          <t>6-8千/月</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
-        <is>
-          <t>6-8千/月</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
         <is>
           <t>04-30</t>
         </is>
@@ -1074,25 +964,20 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/shanghai-ypq/118834608.html?s=01&amp;t=0</t>
+          <t>上海九鞅投资管理合伙企业（有限合...</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>上海九鞅投资管理合伙企业（有限合...</t>
+          <t>上海-杨浦区</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>上海-杨浦区</t>
+          <t>1-2万/月</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
-        <is>
-          <t>1-2万/月</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
         <is>
           <t>04-29</t>
         </is>
@@ -1106,25 +991,20 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/shanghai-pdxq/120930593.html?s=01&amp;t=0</t>
+          <t>太平金融服务有限公司</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>太平金融服务有限公司</t>
+          <t>上海-浦东新区</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>上海-浦东新区</t>
+          <t>30-40万/年</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
-        <is>
-          <t>30-40万/年</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
         <is>
           <t>04-29</t>
         </is>
@@ -1138,25 +1018,20 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/shanghai-ypq/120723183.html?s=01&amp;t=0</t>
+          <t>上海畅圣计算机科技有限公司</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>上海畅圣计算机科技有限公司</t>
+          <t>上海-杨浦区</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>上海-杨浦区</t>
+          <t>0.8-1.8万/月</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
-        <is>
-          <t>0.8-1.8万/月</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
         <is>
           <t>04-29</t>
         </is>
@@ -1170,25 +1045,20 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/shanghai-pdxq/118781377.html?s=01&amp;t=0</t>
+          <t>上海银科创展投资集团有限公司</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>上海银科创展投资集团有限公司</t>
+          <t>上海-浦东新区</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>上海-浦东新区</t>
+          <t>0.8-1.5万/月</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
-        <is>
-          <t>0.8-1.5万/月</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
         <is>
           <t>04-29</t>
         </is>
@@ -1202,25 +1072,20 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/shanghai-xhq/117436639.html?s=01&amp;t=0</t>
+          <t>上海美市科技有限公司</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>上海美市科技有限公司</t>
+          <t>上海-徐汇区</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>上海-徐汇区</t>
+          <t>1.5-2万/月</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
-        <is>
-          <t>1.5-2万/月</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
         <is>
           <t>04-28</t>
         </is>
@@ -1234,25 +1099,20 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/shanghai/120298837.html?s=01&amp;t=0</t>
+          <t>佛罗伦资产管理有限公司 FLORENS ...</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>佛罗伦资产管理有限公司 FLORENS ...</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>0.5-1.3万/月</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
-        <is>
-          <t>0.5-1.3万/月</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
         <is>
           <t>04-28</t>
         </is>
@@ -1266,21 +1126,16 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/shanghai/121178517.html?s=01&amp;t=0</t>
+          <t>海通证券全国总部</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>海通证券全国总部</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
           <t>上海</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
         <is>
           <t>04-28</t>
         </is>
@@ -1294,25 +1149,20 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://ebscn.51job.com/sc/show_job_detail.php?jobid=120244448</t>
+          <t>光大证券股份有限公司</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>光大证券股份有限公司</t>
+          <t>上海-静安区</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>上海-静安区</t>
+          <t>1.5-2万/月</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
-        <is>
-          <t>1.5-2万/月</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
         <is>
           <t>04-27</t>
         </is>
@@ -1326,25 +1176,20 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/nanjing-jyq/120819343.html?s=01&amp;t=0</t>
+          <t>通联数据股份公司</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>通联数据股份公司</t>
+          <t>异地招聘</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>异地招聘</t>
+          <t>0.7-1.5万/月</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
-        <is>
-          <t>0.7-1.5万/月</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
         <is>
           <t>04-27</t>
         </is>
@@ -1358,25 +1203,20 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/shanghai-xhq/120689270.html?s=01&amp;t=0</t>
+          <t>华惠金服信息科技（北京）有限公司...</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>华惠金服信息科技（北京）有限公司...</t>
+          <t>上海-徐汇区</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>上海-徐汇区</t>
+          <t>2-2.5万/月</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
-        <is>
-          <t>2-2.5万/月</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
         <is>
           <t>04-26</t>
         </is>
@@ -1390,21 +1230,16 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/shanghai-mhq/120518103.html?s=01&amp;t=0</t>
+          <t>易唯思商务咨询（上海）有限公司</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>易唯思商务咨询（上海）有限公司</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
           <t>上海-闵行区</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
         <is>
           <t>04-26</t>
         </is>
@@ -1418,25 +1253,20 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/shanghai-pdxq/119580310.html?s=01&amp;t=0</t>
+          <t>众势信用管理有限责任公司</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>众势信用管理有限责任公司</t>
+          <t>上海-浦东新区</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>上海-浦东新区</t>
+          <t>0.8-1万/月</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
-        <is>
-          <t>0.8-1万/月</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
         <is>
           <t>04-26</t>
         </is>
@@ -1450,25 +1280,20 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/shanghai-ypq/119662716.html?s=01&amp;t=0</t>
+          <t>即科金融信息服务（上海）有限公司...</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>即科金融信息服务（上海）有限公司...</t>
+          <t>上海-杨浦区</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>上海-杨浦区</t>
+          <t>2.5-3万/月</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
-        <is>
-          <t>2.5-3万/月</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
         <is>
           <t>04-24</t>
         </is>
@@ -1482,25 +1307,20 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/shanghai-ypq/118395592.html?s=01&amp;t=0</t>
+          <t>上海腾华软件技术有限公司</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>上海腾华软件技术有限公司</t>
+          <t>上海-杨浦区</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>上海-杨浦区</t>
+          <t>0.9-1.5万/月</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
-        <is>
-          <t>0.9-1.5万/月</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
         <is>
           <t>04-24</t>
         </is>
@@ -1514,25 +1334,20 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/shanghai-mhq/120188315.html?s=01&amp;t=0</t>
+          <t>东乔科技（上海）有限责任公司</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>东乔科技（上海）有限责任公司</t>
+          <t>上海-闵行区</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>上海-闵行区</t>
+          <t>1-1.5万/月</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
-        <is>
-          <t>1-1.5万/月</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
         <is>
           <t>04-24</t>
         </is>
@@ -1546,25 +1361,20 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/shanghai/119482952.html?s=01&amp;t=0</t>
+          <t>上海灿谷投资管理咨询服务有限公司...</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>上海灿谷投资管理咨询服务有限公司...</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>1-1.5万/月</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
-        <is>
-          <t>1-1.5万/月</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
         <is>
           <t>04-24</t>
         </is>
@@ -1578,25 +1388,20 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/shanghai-pdxq/120111672.html?s=01&amp;t=0</t>
+          <t>上海小牛互娱智能科技有限公司</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>上海小牛互娱智能科技有限公司</t>
+          <t>上海-浦东新区</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>上海-浦东新区</t>
+          <t>2-2.8万/月</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
-        <is>
-          <t>2-2.8万/月</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
         <is>
           <t>04-22</t>
         </is>
@@ -1610,25 +1415,20 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/shanghai/118631912.html?s=01&amp;t=0</t>
+          <t>三井住友银行（中国）有限公司</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>三井住友银行（中国）有限公司</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>0.8-1万/月</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
-        <is>
-          <t>0.8-1万/月</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
         <is>
           <t>04-22</t>
         </is>
@@ -1642,25 +1442,20 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/shanghai-pdxq/118593705.html?s=01&amp;t=0</t>
+          <t>上海即富信息技术服务有限公司</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>上海即富信息技术服务有限公司</t>
+          <t>上海-浦东新区</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>上海-浦东新区</t>
+          <t>1.5-2.5万/月</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
-        <is>
-          <t>1.5-2.5万/月</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
         <is>
           <t>04-22</t>
         </is>
@@ -1674,25 +1469,20 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/shanghai-mhq/119202313.html?s=01&amp;t=0</t>
+          <t>广汇汽车服务股份公司（汇通信诚）...</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>广汇汽车服务股份公司（汇通信诚）...</t>
+          <t>上海-闵行区</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>上海-闵行区</t>
+          <t>1.5-2万/月</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
-        <is>
-          <t>1.5-2万/月</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
         <is>
           <t>04-18</t>
         </is>
@@ -1706,25 +1496,20 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/shanghai-jaq/120945669.html?s=01&amp;t=0</t>
+          <t>光明食品集团财务有限公司</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>光明食品集团财务有限公司</t>
+          <t>上海-静安区</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>上海-静安区</t>
+          <t>1.6-2.2万/月</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
-        <is>
-          <t>1.6-2.2万/月</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
         <is>
           <t>04-15</t>
         </is>
@@ -1738,21 +1523,16 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/shanghai-pdxq/75608719.html?s=01&amp;t=0</t>
+          <t>万得信息技术股份有限公司（Wind资...</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>万得信息技术股份有限公司（Wind资...</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>上海-浦东新区</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
+          <t>上海-浦东新区</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
         <is>
           <t>04-13</t>
         </is>
@@ -1766,25 +1546,20 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/shanghai-pdxq/120766643.html?s=01&amp;t=0</t>
+          <t>深圳萨摩耶互联网金融服务有限公司...</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>深圳萨摩耶互联网金融服务有限公司...</t>
+          <t>上海-浦东新区</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>上海-浦东新区</t>
+          <t>1-1.5万/月</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
-        <is>
-          <t>1-1.5万/月</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
         <is>
           <t>04-09</t>
         </is>
@@ -1798,25 +1573,20 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/shanghai-pdxq/115050033.html?s=01&amp;t=0</t>
+          <t>证通股份有限公司</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>证通股份有限公司</t>
+          <t>上海-浦东新区</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>上海-浦东新区</t>
+          <t>2-2.5万/月</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
-        <is>
-          <t>2-2.5万/月</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
         <is>
           <t>04-09</t>
         </is>
@@ -1830,25 +1600,20 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/shanghai/104105476.html?s=01&amp;t=0</t>
+          <t>霸恩科技（上海）有限公司</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>霸恩科技（上海）有限公司</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>1-1.5万/月</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
-        <is>
-          <t>1-1.5万/月</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
         <is>
           <t>04-05</t>
         </is>
@@ -1862,25 +1627,20 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/shanghai-hpq/116167739.html?s=01&amp;t=0</t>
+          <t>东方微银科技（北京）有限公司</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>东方微银科技（北京）有限公司</t>
+          <t>上海-黄浦区</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>上海-黄浦区</t>
+          <t>0.7-2万/月</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
-        <is>
-          <t>0.7-2万/月</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
         <is>
           <t>04-03</t>
         </is>
@@ -1894,25 +1654,20 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/shanghai-pdxq/119920479.html?s=01&amp;t=0</t>
+          <t>百融云创科技股份有限公司</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>百融云创科技股份有限公司</t>
+          <t>上海-浦东新区</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>上海-浦东新区</t>
+          <t>1.5-3万/月</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
-        <is>
-          <t>1.5-3万/月</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
         <is>
           <t>03-30</t>
         </is>
@@ -1926,25 +1681,20 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/shanghai-pdxq/119110780.html?s=01&amp;t=0</t>
+          <t>上海华瑞银行股份有限公司</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>上海华瑞银行股份有限公司</t>
+          <t>上海-浦东新区</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>上海-浦东新区</t>
+          <t>1.5-2万/月</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
-        <is>
-          <t>1.5-2万/月</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
         <is>
           <t>03-30</t>
         </is>
@@ -1958,25 +1708,20 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/shanghai-ypq/120421550.html?s=01&amp;t=0</t>
+          <t>上海宗德金融信息服务有限公司</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>上海宗德金融信息服务有限公司</t>
+          <t>上海-杨浦区</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>上海-杨浦区</t>
+          <t>1-2.5万/月</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
-        <is>
-          <t>1-2.5万/月</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
         <is>
           <t>03-27</t>
         </is>
@@ -1990,25 +1735,20 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/shanghai-pdxq/120364861.html?s=01&amp;t=0</t>
+          <t>富邦华一银行有限公司</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>富邦华一银行有限公司</t>
+          <t>上海-浦东新区</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>上海-浦东新区</t>
+          <t>20-35万/年</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
-        <is>
-          <t>20-35万/年</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
         <is>
           <t>03-27</t>
         </is>
